--- a/Doc/Template-Matrice-de-décision.xlsx
+++ b/Doc/Template-Matrice-de-décision.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David.ROULET\Documents\GitHub\TPI\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\TPI\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F67595-C855-4FB7-A571-C52D653E6F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="2550"/>
+    <workbookView xWindow="-840" yWindow="5610" windowWidth="24450" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Critères</t>
   </si>
@@ -59,11 +72,17 @@
   <si>
     <t>IPS/IDS</t>
   </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>endian firewall entrepise es requise pour le captive portal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -436,6 +455,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,6 +464,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,21 +480,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,14 +767,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -766,90 +785,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="38" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="38" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="38" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="27"/>
+      <c r="O2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="32"/>
+      <c r="P2" s="36"/>
     </row>
     <row r="3" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="28">
         <v>3</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="28">
+      <c r="D3" s="23"/>
+      <c r="E3" s="25">
         <v>5</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="28">
+      <c r="F3" s="23"/>
+      <c r="G3" s="25">
         <v>4</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="28">
+      <c r="H3" s="23"/>
+      <c r="I3" s="25">
         <v>5</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="28">
+      <c r="J3" s="23"/>
+      <c r="K3" s="25">
         <v>4</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="34"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="25">
+        <v>4</v>
+      </c>
+      <c r="N3" s="23"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
       <c r="D4" s="5">
         <f>C4*C3</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5</v>
+      </c>
       <c r="F4" s="5">
         <f>E4*E3</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4</v>
+      </c>
       <c r="H4" s="5">
         <f>G4*G3</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="5">
@@ -866,30 +895,36 @@
         <f>M4*M3</f>
         <v>0</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="24">
         <f t="shared" ref="O4:O16" si="0">D4+F4+H4+J4+L4+N4</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="P4" s="23"/>
     </row>
     <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
       <c r="D5" s="9">
         <f>C5*C3</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
       <c r="F5" s="9">
         <f>E5*E3</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="G5" s="10">
+        <v>4</v>
+      </c>
       <c r="H5" s="9">
         <f>G5*G3</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="9">
@@ -906,444 +941,459 @@
         <f>M5*M3</f>
         <v>0</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="21"/>
+        <v>56</v>
+      </c>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="12">
+        <v>4</v>
+      </c>
       <c r="D6" s="5">
-        <f>C6*C5</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="6"/>
+        <f>C6*C3</f>
+        <v>12</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
       <c r="F6" s="5">
-        <f>E6*E5</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="6"/>
+        <f>E6*E3</f>
+        <v>20</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
       <c r="H6" s="5">
-        <f>G6*G5</f>
-        <v>0</v>
+        <f>G6*G3</f>
+        <v>4</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="5">
-        <f>I6*I5</f>
+        <f>I6*I3</f>
         <v>0</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="5">
-        <f>K6*K5</f>
+        <f>K6*K3</f>
         <v>0</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="5">
-        <f>M6*M5</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="22">
+        <f>M6*M3</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
       <c r="D7" s="9">
-        <f>C7*C5</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="11"/>
+        <f>C7*C3</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="11">
+        <v>3</v>
+      </c>
       <c r="F7" s="9">
-        <f>E7*E5</f>
-        <v>0</v>
+        <f>E7*E3</f>
+        <v>15</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="9">
-        <f>G7*G5</f>
+        <f>G7*G3</f>
         <v>0</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="9">
-        <f>I7*I5</f>
+        <f>I7*I3</f>
         <v>0</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="9">
-        <f>K7*K5</f>
+        <f>K7*K3</f>
         <v>0</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="9">
-        <f>M7*M5</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="20">
+        <f>M7*M3</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="P7" s="23"/>
     </row>
     <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12">
+        <v>5</v>
+      </c>
       <c r="D8" s="13">
-        <f>C8*C7</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="6"/>
+        <f>C8*C3</f>
+        <v>15</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
       <c r="F8" s="13">
-        <f>E8*E7</f>
-        <v>0</v>
+        <f>E8*E3</f>
+        <v>15</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="13">
-        <f>G8*G7</f>
+        <f>G8*G3</f>
         <v>0</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="13">
-        <f>I8*I7</f>
+        <f>I8*I3</f>
         <v>0</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="13">
-        <f>K8*K7</f>
+        <f>K8*K3</f>
         <v>0</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="13">
-        <f>M8*M7</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="22">
+        <f>M8*M3</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="14">
-        <f>C9*C7</f>
+        <f>C9*C3</f>
         <v>0</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="14">
-        <f>E9*E7</f>
+        <f>E9*E3</f>
         <v>0</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="14">
-        <f>G9*G7</f>
+        <f>G9*G3</f>
         <v>0</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="14">
-        <f>I9*I7</f>
+        <f>I9*I3</f>
         <v>0</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="14">
-        <f>K9*K7</f>
+        <f>K9*K3</f>
         <v>0</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="14">
-        <f>M9*M7</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="20">
+        <f>M9*M3</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="21"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13">
-        <f>C10*C9</f>
+        <f>C10*C3</f>
         <v>0</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="13">
-        <f>E10*E9</f>
+        <f>E10*E3</f>
         <v>0</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="13">
-        <f>G10*G9</f>
+        <f>G10*G3</f>
         <v>0</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="13">
-        <f>I10*I9</f>
+        <f>I10*I3</f>
         <v>0</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="13">
-        <f>K10*K9</f>
+        <f>K10*K3</f>
         <v>0</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="13">
-        <f>M10*M9</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="22">
+        <f>M10*M3</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="21"/>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="14">
-        <f>C11*C9</f>
+        <f>C11*C3</f>
         <v>0</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="14">
-        <f>E11*E9</f>
+        <f>E11*E3</f>
         <v>0</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="14">
-        <f>G11*G9</f>
+        <f>G11*G3</f>
         <v>0</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="14">
-        <f>I11*I9</f>
+        <f>I11*I3</f>
         <v>0</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="14">
-        <f>K11*K9</f>
+        <f>K11*K3</f>
         <v>0</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="14">
-        <f>M11*M9</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="20">
+        <f>M11*M3</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="21"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="12"/>
       <c r="D12" s="13">
-        <f>C12*C11</f>
+        <f>C12*C3</f>
         <v>0</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="13">
-        <f>E12*E11</f>
+        <f>E12*E3</f>
         <v>0</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="13">
-        <f>G12*G11</f>
+        <f>G12*G3</f>
         <v>0</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="13">
-        <f>I12*I11</f>
+        <f>I12*I3</f>
         <v>0</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="13">
-        <f>K12*K11</f>
+        <f>K12*K3</f>
         <v>0</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="13">
-        <f>M12*M11</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="22">
+        <f>M12*M3</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="21"/>
+      <c r="P12" s="23"/>
     </row>
     <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="14">
-        <f>C13*C11</f>
+        <f>C13*C3</f>
         <v>0</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="14">
-        <f>E13*E11</f>
+        <f>E13*E3</f>
         <v>0</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="14">
-        <f>G13*G11</f>
+        <f>G13*G3</f>
         <v>0</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="14">
-        <f>I13*I11</f>
+        <f>I13*I3</f>
         <v>0</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="14">
-        <f>K13*K11</f>
+        <f>K13*K3</f>
         <v>0</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="14">
-        <f>M13*M11</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="20">
+        <f>M13*M3</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="21"/>
+      <c r="P13" s="23"/>
     </row>
     <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="12"/>
       <c r="D14" s="15">
-        <f>C14*C13</f>
+        <f>C14*C3</f>
         <v>0</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="15">
-        <f>E14*E13</f>
+        <f>E14*E3</f>
         <v>0</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="15">
-        <f>G14*G13</f>
+        <f>G14*G3</f>
         <v>0</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="15">
-        <f>I14*I13</f>
+        <f>I14*I3</f>
         <v>0</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="15">
-        <f>K14*K13</f>
+        <f>K14*K3</f>
         <v>0</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="15">
-        <f>M14*M13</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="22">
+        <f>M14*M3</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P14" s="21"/>
+      <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="14">
-        <f>C15*C13</f>
+        <f>C15*C3</f>
         <v>0</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="14">
-        <f>E15*E13</f>
+        <f>E15*E3</f>
         <v>0</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="14">
-        <f>G15*G13</f>
+        <f>G15*G3</f>
         <v>0</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="14">
-        <f>I15*I13</f>
+        <f>I15*I3</f>
         <v>0</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="14">
-        <f>K15*K13</f>
+        <f>K15*K3</f>
         <v>0</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="14">
-        <f>M15*M13</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="20">
+        <f>M15*M3</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P15" s="21"/>
+      <c r="P15" s="23"/>
     </row>
     <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18">
-        <f>C16*C15</f>
+        <f>C16*C3</f>
         <v>0</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="18">
-        <f>E16*E15</f>
+        <f>E16*E3</f>
         <v>0</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="18">
-        <f>G16*G15</f>
+        <f>G16*G3</f>
         <v>0</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="18">
-        <f>I16*I15</f>
+        <f>I16*I3</f>
         <v>0</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="18">
-        <f>K16*K15</f>
+        <f>K16*K3</f>
         <v>0</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="18">
-        <f>M16*M15</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="26">
+        <f>M16*M3</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P16" s="27"/>
+      <c r="P16" s="32"/>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O12:P12"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="O14:P14"/>
@@ -1360,11 +1410,15 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P3"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O12:P12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
